--- a/data/pca/factorExposure/factorExposure_2016-01-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01978072644314648</v>
+        <v>-0.01919165498204741</v>
       </c>
       <c r="C2">
-        <v>0.04352420293649717</v>
+        <v>-0.03883684594733341</v>
       </c>
       <c r="D2">
-        <v>-0.1039925644303151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1193502649207464</v>
+      </c>
+      <c r="E2">
+        <v>0.08742520201445839</v>
+      </c>
+      <c r="F2">
+        <v>-0.003698654071552794</v>
+      </c>
+      <c r="G2">
+        <v>0.0280351909937429</v>
+      </c>
+      <c r="H2">
+        <v>-0.09577598882104962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02530351090318907</v>
+        <v>-0.01496577312571486</v>
       </c>
       <c r="C3">
-        <v>0.07907816750680485</v>
+        <v>-0.04346622380841109</v>
       </c>
       <c r="D3">
-        <v>-0.1588477571858463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08139039979821984</v>
+      </c>
+      <c r="E3">
+        <v>0.1091218237101719</v>
+      </c>
+      <c r="F3">
+        <v>0.0369122035525294</v>
+      </c>
+      <c r="G3">
+        <v>0.08653311565239699</v>
+      </c>
+      <c r="H3">
+        <v>-0.065247389355185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04983691855907152</v>
+        <v>-0.05526404514308017</v>
       </c>
       <c r="C4">
-        <v>0.05321560251799293</v>
+        <v>-0.06567264833670845</v>
       </c>
       <c r="D4">
-        <v>-0.1286945571206536</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1329931881042287</v>
+      </c>
+      <c r="E4">
+        <v>0.05243028435931705</v>
+      </c>
+      <c r="F4">
+        <v>0.008854525803282389</v>
+      </c>
+      <c r="G4">
+        <v>-0.02571351464236829</v>
+      </c>
+      <c r="H4">
+        <v>0.04073102400033934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04082031638423813</v>
+        <v>-0.03996114689953327</v>
       </c>
       <c r="C6">
-        <v>0.02733315451636678</v>
+        <v>-0.02791115713157791</v>
       </c>
       <c r="D6">
-        <v>-0.120534433333497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1265877396944391</v>
+      </c>
+      <c r="E6">
+        <v>0.04364725114464982</v>
+      </c>
+      <c r="F6">
+        <v>0.009785445568970187</v>
+      </c>
+      <c r="G6">
+        <v>0.01071053022456683</v>
+      </c>
+      <c r="H6">
+        <v>-0.005193974496867032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02563436324449291</v>
+        <v>-0.01907141312685723</v>
       </c>
       <c r="C7">
-        <v>0.02961160733947764</v>
+        <v>-0.0368328340181705</v>
       </c>
       <c r="D7">
-        <v>-0.08982083949598789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.0909047607496455</v>
+      </c>
+      <c r="E7">
+        <v>0.05423615600408476</v>
+      </c>
+      <c r="F7">
+        <v>0.01730730367390887</v>
+      </c>
+      <c r="G7">
+        <v>-0.04846594664648806</v>
+      </c>
+      <c r="H7">
+        <v>-0.09058817917470596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00614674521448849</v>
+        <v>-0.00727731151582966</v>
       </c>
       <c r="C8">
-        <v>0.0390237699089335</v>
+        <v>-0.03841480557262711</v>
       </c>
       <c r="D8">
-        <v>-0.07223238630127199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08073126674602682</v>
+      </c>
+      <c r="E8">
+        <v>0.04120046976675958</v>
+      </c>
+      <c r="F8">
+        <v>0.02408401425890576</v>
+      </c>
+      <c r="G8">
+        <v>-0.002909461360207832</v>
+      </c>
+      <c r="H8">
+        <v>-0.02715214253256039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03831490662601356</v>
+        <v>-0.04237798473740309</v>
       </c>
       <c r="C9">
-        <v>0.04236988318714601</v>
+        <v>-0.05683829577706223</v>
       </c>
       <c r="D9">
-        <v>-0.09986299674109615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1117044200234266</v>
+      </c>
+      <c r="E9">
+        <v>0.04361977833429043</v>
+      </c>
+      <c r="F9">
+        <v>-0.00576518742857595</v>
+      </c>
+      <c r="G9">
+        <v>-0.03222087880172948</v>
+      </c>
+      <c r="H9">
+        <v>0.002129856559284278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08727696151756552</v>
+        <v>-0.1229250188509883</v>
       </c>
       <c r="C10">
-        <v>-0.1908711544511772</v>
+        <v>0.1923770410731522</v>
       </c>
       <c r="D10">
-        <v>-0.01327019516195165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.002834964992624973</v>
+      </c>
+      <c r="E10">
+        <v>0.05791091246414854</v>
+      </c>
+      <c r="F10">
+        <v>0.01138226509183852</v>
+      </c>
+      <c r="G10">
+        <v>-0.0317225661345264</v>
+      </c>
+      <c r="H10">
+        <v>0.0175308680876685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03645576742537258</v>
+        <v>-0.03019123501654803</v>
       </c>
       <c r="C11">
-        <v>0.04279440974883069</v>
+        <v>-0.04394449872329402</v>
       </c>
       <c r="D11">
-        <v>-0.06545830979027821</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05959006735460506</v>
+      </c>
+      <c r="E11">
+        <v>0.01024875898803958</v>
+      </c>
+      <c r="F11">
+        <v>0.006046719796577272</v>
+      </c>
+      <c r="G11">
+        <v>-0.02711757278768008</v>
+      </c>
+      <c r="H11">
+        <v>-0.04967066495245934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0410477220376497</v>
+        <v>-0.0340239613993366</v>
       </c>
       <c r="C12">
-        <v>0.04006594996437778</v>
+        <v>-0.04422722831128879</v>
       </c>
       <c r="D12">
-        <v>-0.05845483013502573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05767170056775081</v>
+      </c>
+      <c r="E12">
+        <v>0.02078768151588666</v>
+      </c>
+      <c r="F12">
+        <v>-0.001260524780936158</v>
+      </c>
+      <c r="G12">
+        <v>-0.02671593284084625</v>
+      </c>
+      <c r="H12">
+        <v>-0.05677666160588342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0127974050479103</v>
+        <v>-0.01923221672812682</v>
       </c>
       <c r="C13">
-        <v>0.03548163964637695</v>
+        <v>-0.03854610126614705</v>
       </c>
       <c r="D13">
-        <v>-0.130033244483314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1397327230759897</v>
+      </c>
+      <c r="E13">
+        <v>0.08174380848019275</v>
+      </c>
+      <c r="F13">
+        <v>0.0144342984236276</v>
+      </c>
+      <c r="G13">
+        <v>-0.03460680024907734</v>
+      </c>
+      <c r="H13">
+        <v>-0.07329014706911201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01372035998160946</v>
+        <v>-0.008538890443229809</v>
       </c>
       <c r="C14">
-        <v>0.02310344135041777</v>
+        <v>-0.02693111942437827</v>
       </c>
       <c r="D14">
-        <v>-0.08178178958220045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08385100610958568</v>
+      </c>
+      <c r="E14">
+        <v>0.0504287297350768</v>
+      </c>
+      <c r="F14">
+        <v>-0.01092670845916482</v>
+      </c>
+      <c r="G14">
+        <v>-0.02660424180735745</v>
+      </c>
+      <c r="H14">
+        <v>-0.0842328843553834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001479333614839769</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.006444041505169197</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02288452668920016</v>
+      </c>
+      <c r="E15">
+        <v>0.005016094812167513</v>
+      </c>
+      <c r="F15">
+        <v>-0.00314490525328983</v>
+      </c>
+      <c r="G15">
+        <v>0.002366703368336058</v>
+      </c>
+      <c r="H15">
+        <v>-0.01199453588746075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.037363165336175</v>
+        <v>-0.03122367350330145</v>
       </c>
       <c r="C16">
-        <v>0.04682195526589344</v>
+        <v>-0.04630622234276526</v>
       </c>
       <c r="D16">
-        <v>-0.06723513649707366</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06310967267226235</v>
+      </c>
+      <c r="E16">
+        <v>0.02204800595321621</v>
+      </c>
+      <c r="F16">
+        <v>-0.0104138506300515</v>
+      </c>
+      <c r="G16">
+        <v>-0.02388307866217488</v>
+      </c>
+      <c r="H16">
+        <v>-0.05582360184831622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01355730250254706</v>
+        <v>-0.01253516600627536</v>
       </c>
       <c r="C19">
-        <v>0.03714366026637747</v>
+        <v>-0.03364165646161225</v>
       </c>
       <c r="D19">
-        <v>-0.1738100961538286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1332714462301351</v>
+      </c>
+      <c r="E19">
+        <v>0.07556070051865703</v>
+      </c>
+      <c r="F19">
+        <v>-0.02928840424600171</v>
+      </c>
+      <c r="G19">
+        <v>2.969936544315232e-05</v>
+      </c>
+      <c r="H19">
+        <v>-0.05163382343909861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01898449692246721</v>
+        <v>-0.01594475146573084</v>
       </c>
       <c r="C20">
-        <v>0.03507068749594141</v>
+        <v>-0.03747073596028107</v>
       </c>
       <c r="D20">
-        <v>-0.09524545379734742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09482506223509667</v>
+      </c>
+      <c r="E20">
+        <v>0.0643629582402699</v>
+      </c>
+      <c r="F20">
+        <v>-0.01105688708688985</v>
+      </c>
+      <c r="G20">
+        <v>-0.01829976404284182</v>
+      </c>
+      <c r="H20">
+        <v>-0.0449235500269928</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01258649113553721</v>
+        <v>-0.01562458459245121</v>
       </c>
       <c r="C21">
-        <v>0.02864859107528049</v>
+        <v>-0.03973269597552034</v>
       </c>
       <c r="D21">
-        <v>-0.1302550803434726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1313842814899318</v>
+      </c>
+      <c r="E21">
+        <v>0.1061870087966083</v>
+      </c>
+      <c r="F21">
+        <v>-0.01772491268462987</v>
+      </c>
+      <c r="G21">
+        <v>-0.0702014172864321</v>
+      </c>
+      <c r="H21">
+        <v>-0.08023186993468671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001554900774967848</v>
+        <v>-0.00581316579962082</v>
       </c>
       <c r="C22">
-        <v>0.01066485832797386</v>
+        <v>-0.03406117297644318</v>
       </c>
       <c r="D22">
-        <v>-0.04766190001242882</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1128333018185316</v>
+      </c>
+      <c r="E22">
+        <v>0.03541421355185071</v>
+      </c>
+      <c r="F22">
+        <v>0.06844954353196825</v>
+      </c>
+      <c r="G22">
+        <v>0.0510063591779262</v>
+      </c>
+      <c r="H22">
+        <v>0.01836696714596836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001507735119600338</v>
+        <v>-0.005913865731474242</v>
       </c>
       <c r="C23">
-        <v>0.01049726004250573</v>
+        <v>-0.03442531559779068</v>
       </c>
       <c r="D23">
-        <v>-0.04735020253791903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1121319364157385</v>
+      </c>
+      <c r="E23">
+        <v>0.03562648362835309</v>
+      </c>
+      <c r="F23">
+        <v>0.06834223860677066</v>
+      </c>
+      <c r="G23">
+        <v>0.05028570445809721</v>
+      </c>
+      <c r="H23">
+        <v>0.0188247391733416</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03586709364497378</v>
+        <v>-0.03253876284000057</v>
       </c>
       <c r="C24">
-        <v>0.04739567794541157</v>
+        <v>-0.05395347553267649</v>
       </c>
       <c r="D24">
-        <v>-0.0669662072365515</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06672159335982152</v>
+      </c>
+      <c r="E24">
+        <v>0.02631667921177971</v>
+      </c>
+      <c r="F24">
+        <v>-0.009034920466173267</v>
+      </c>
+      <c r="G24">
+        <v>-0.04104464051023681</v>
+      </c>
+      <c r="H24">
+        <v>-0.0609509885077882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0437887044653061</v>
+        <v>-0.03762004518794353</v>
       </c>
       <c r="C25">
-        <v>0.05035135736419371</v>
+        <v>-0.05293371696876612</v>
       </c>
       <c r="D25">
-        <v>-0.06622209511369756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06116938894958478</v>
+      </c>
+      <c r="E25">
+        <v>0.02466724225811844</v>
+      </c>
+      <c r="F25">
+        <v>0.005286488582673051</v>
+      </c>
+      <c r="G25">
+        <v>-0.0374996551116329</v>
+      </c>
+      <c r="H25">
+        <v>-0.04738214613321885</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02207539731026055</v>
+        <v>-0.01999080159938708</v>
       </c>
       <c r="C26">
-        <v>0.00993744333079268</v>
+        <v>-0.01783164697772369</v>
       </c>
       <c r="D26">
-        <v>-0.0587662838113694</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06656111206497557</v>
+      </c>
+      <c r="E26">
+        <v>0.03084848531817554</v>
+      </c>
+      <c r="F26">
+        <v>-0.008843034909776058</v>
+      </c>
+      <c r="G26">
+        <v>-0.01745527123914279</v>
+      </c>
+      <c r="H26">
+        <v>-0.0513023261337009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1188229365114208</v>
+        <v>-0.1724920144681196</v>
       </c>
       <c r="C28">
-        <v>-0.2748879994310457</v>
+        <v>0.2564659451141398</v>
       </c>
       <c r="D28">
-        <v>0.02419677971227741</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.009913742760680055</v>
+      </c>
+      <c r="E28">
+        <v>0.07852540272902749</v>
+      </c>
+      <c r="F28">
+        <v>0.002478614010804931</v>
+      </c>
+      <c r="G28">
+        <v>-0.06854281459677641</v>
+      </c>
+      <c r="H28">
+        <v>0.01306327656625558</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007329564679247736</v>
+        <v>-0.007877603357944896</v>
       </c>
       <c r="C29">
-        <v>0.02212882225378955</v>
+        <v>-0.02461407467286319</v>
       </c>
       <c r="D29">
-        <v>-0.06451629860139496</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07626084306675729</v>
+      </c>
+      <c r="E29">
+        <v>0.05469877328372488</v>
+      </c>
+      <c r="F29">
+        <v>0.00215554168679732</v>
+      </c>
+      <c r="G29">
+        <v>-0.0392894194388628</v>
+      </c>
+      <c r="H29">
+        <v>-0.07756073903375821</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04149324665621464</v>
+        <v>-0.04385164400323542</v>
       </c>
       <c r="C30">
-        <v>0.03412348079724156</v>
+        <v>-0.05643608063983013</v>
       </c>
       <c r="D30">
-        <v>-0.1496905900580568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1699532178332469</v>
+      </c>
+      <c r="E30">
+        <v>0.03378012986361695</v>
+      </c>
+      <c r="F30">
+        <v>-0.00296028230304844</v>
+      </c>
+      <c r="G30">
+        <v>0.01942064076707851</v>
+      </c>
+      <c r="H30">
+        <v>-0.01723545307123685</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06596722996559536</v>
+        <v>-0.05993414517841612</v>
       </c>
       <c r="C31">
-        <v>0.05375203080731672</v>
+        <v>-0.07196997247478437</v>
       </c>
       <c r="D31">
-        <v>-0.06429750336433263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05241917666314656</v>
+      </c>
+      <c r="E31">
+        <v>0.05395793510329905</v>
+      </c>
+      <c r="F31">
+        <v>0.03654873122023024</v>
+      </c>
+      <c r="G31">
+        <v>-0.0263849758925442</v>
+      </c>
+      <c r="H31">
+        <v>-0.02338581748681117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.003742766712873585</v>
+        <v>-0.01174275890757111</v>
       </c>
       <c r="C32">
-        <v>0.007113721866889157</v>
+        <v>-0.02157122442677379</v>
       </c>
       <c r="D32">
-        <v>-0.0748939577485141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09256315895134805</v>
+      </c>
+      <c r="E32">
+        <v>0.0970844499847297</v>
+      </c>
+      <c r="F32">
+        <v>-0.005730278768806844</v>
+      </c>
+      <c r="G32">
+        <v>-0.06683839301779421</v>
+      </c>
+      <c r="H32">
+        <v>-0.06003874426166991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02756301363730865</v>
+        <v>-0.02542104576421321</v>
       </c>
       <c r="C33">
-        <v>0.0325548245529801</v>
+        <v>-0.04451876390356301</v>
       </c>
       <c r="D33">
-        <v>-0.1362633889578297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1314213639162431</v>
+      </c>
+      <c r="E33">
+        <v>0.05855295079964926</v>
+      </c>
+      <c r="F33">
+        <v>0.01095352675622015</v>
+      </c>
+      <c r="G33">
+        <v>-0.031922001829682</v>
+      </c>
+      <c r="H33">
+        <v>-0.05234423341372887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03614595279590242</v>
+        <v>-0.03134305524086841</v>
       </c>
       <c r="C34">
-        <v>0.0578453500322265</v>
+        <v>-0.05976185383304839</v>
       </c>
       <c r="D34">
-        <v>-0.06613434944146666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05962604463811888</v>
+      </c>
+      <c r="E34">
+        <v>0.004600223793956628</v>
+      </c>
+      <c r="F34">
+        <v>-0.005277284041242268</v>
+      </c>
+      <c r="G34">
+        <v>-0.04086837118783365</v>
+      </c>
+      <c r="H34">
+        <v>-0.06507452398232641</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0004295687751941921</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.00012884637543897</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.002431908075560675</v>
+      </c>
+      <c r="E35">
+        <v>0.0003750061024985849</v>
+      </c>
+      <c r="F35">
+        <v>0.0003172396773199625</v>
+      </c>
+      <c r="G35">
+        <v>-0.0007914611876737369</v>
+      </c>
+      <c r="H35">
+        <v>-0.002357905772110119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01864080293697948</v>
+        <v>-0.01776878813183858</v>
       </c>
       <c r="C36">
-        <v>0.008512965060419464</v>
+        <v>-0.01724465028140048</v>
       </c>
       <c r="D36">
-        <v>-0.07346055358686279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07604343869928035</v>
+      </c>
+      <c r="E36">
+        <v>0.04587270793940065</v>
+      </c>
+      <c r="F36">
+        <v>-0.005878876235050987</v>
+      </c>
+      <c r="G36">
+        <v>-0.02873523752760263</v>
+      </c>
+      <c r="H36">
+        <v>-0.04222532970295976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02901149278067364</v>
+        <v>-0.02398315682884589</v>
       </c>
       <c r="C38">
-        <v>0.02185032739937353</v>
+        <v>-0.0239689700417649</v>
       </c>
       <c r="D38">
-        <v>-0.05531392212487519</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06187682447290455</v>
+      </c>
+      <c r="E38">
+        <v>0.04027227556329472</v>
+      </c>
+      <c r="F38">
+        <v>-0.00736688973105722</v>
+      </c>
+      <c r="G38">
+        <v>0.02649564212847065</v>
+      </c>
+      <c r="H38">
+        <v>-0.033350117062806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04531852944233079</v>
+        <v>-0.03954586391988713</v>
       </c>
       <c r="C39">
-        <v>0.05527862123868071</v>
+        <v>-0.06296823200934062</v>
       </c>
       <c r="D39">
-        <v>-0.08275675309142227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.09911140823111725</v>
+      </c>
+      <c r="E39">
+        <v>0.02191415650525532</v>
+      </c>
+      <c r="F39">
+        <v>-0.02435676087309702</v>
+      </c>
+      <c r="G39">
+        <v>-0.02614112319561729</v>
+      </c>
+      <c r="H39">
+        <v>-0.07662547410315393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01661841743956424</v>
+        <v>-0.01542841706308932</v>
       </c>
       <c r="C40">
-        <v>0.05194733931146363</v>
+        <v>-0.04163010887156655</v>
       </c>
       <c r="D40">
-        <v>-0.0845701949334427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09473750018630206</v>
+      </c>
+      <c r="E40">
+        <v>0.09170274192494841</v>
+      </c>
+      <c r="F40">
+        <v>0.04187573270685112</v>
+      </c>
+      <c r="G40">
+        <v>-0.01974590054134993</v>
+      </c>
+      <c r="H40">
+        <v>-0.1362123078118112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02409316137307385</v>
+        <v>-0.02252392266942234</v>
       </c>
       <c r="C41">
-        <v>0.0007888970200696168</v>
+        <v>-0.01081343892748377</v>
       </c>
       <c r="D41">
-        <v>-0.080384562468951</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.06121907987346461</v>
+      </c>
+      <c r="E41">
+        <v>0.06146680599842622</v>
+      </c>
+      <c r="F41">
+        <v>-0.006723948220335116</v>
+      </c>
+      <c r="G41">
+        <v>-0.01355052917475674</v>
+      </c>
+      <c r="H41">
+        <v>-0.04137547856635378</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03600899566535601</v>
+        <v>-0.02664774997055996</v>
       </c>
       <c r="C43">
-        <v>0.01580316396760621</v>
+        <v>-0.02237320164938757</v>
       </c>
       <c r="D43">
-        <v>-0.1214560510237624</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0922723371870878</v>
+      </c>
+      <c r="E43">
+        <v>0.05053121008134502</v>
+      </c>
+      <c r="F43">
+        <v>0.002892873319874339</v>
+      </c>
+      <c r="G43">
+        <v>-0.01993434480441353</v>
+      </c>
+      <c r="H43">
+        <v>-0.05773617594295891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0136762438623823</v>
+        <v>-0.01791082621956856</v>
       </c>
       <c r="C44">
-        <v>0.04726557697546439</v>
+        <v>-0.04266197855710623</v>
       </c>
       <c r="D44">
-        <v>-0.07961572377576726</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09260084325756786</v>
+      </c>
+      <c r="E44">
+        <v>0.07830795180698624</v>
+      </c>
+      <c r="F44">
+        <v>-0.01417837482381402</v>
+      </c>
+      <c r="G44">
+        <v>-0.03642516668705674</v>
+      </c>
+      <c r="H44">
+        <v>-0.05351569756090584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01861218172374243</v>
+        <v>-0.015804016604972</v>
       </c>
       <c r="C46">
-        <v>0.01953473140227857</v>
+        <v>-0.02840307311120758</v>
       </c>
       <c r="D46">
-        <v>-0.06971089280063582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08080361160152187</v>
+      </c>
+      <c r="E46">
+        <v>0.0514818318726921</v>
+      </c>
+      <c r="F46">
+        <v>-0.02122704911414071</v>
+      </c>
+      <c r="G46">
+        <v>-0.04963316416096674</v>
+      </c>
+      <c r="H46">
+        <v>-0.07736498458650853</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09421251081767683</v>
+        <v>-0.09012577428097993</v>
       </c>
       <c r="C47">
-        <v>0.07099705552191003</v>
+        <v>-0.09025656942722583</v>
       </c>
       <c r="D47">
-        <v>-0.03805122547978696</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03180679758581462</v>
+      </c>
+      <c r="E47">
+        <v>0.04273969332494464</v>
+      </c>
+      <c r="F47">
+        <v>0.02217876225052718</v>
+      </c>
+      <c r="G47">
+        <v>-0.05316853760119158</v>
+      </c>
+      <c r="H47">
+        <v>0.01044621714040148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02166939889707367</v>
+        <v>-0.01961244672789772</v>
       </c>
       <c r="C48">
-        <v>0.009649453304338666</v>
+        <v>-0.0195350332203837</v>
       </c>
       <c r="D48">
-        <v>-0.07411532211864942</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07692676339661608</v>
+      </c>
+      <c r="E48">
+        <v>0.05707855789945897</v>
+      </c>
+      <c r="F48">
+        <v>-0.01971787009766322</v>
+      </c>
+      <c r="G48">
+        <v>-0.03018307154444738</v>
+      </c>
+      <c r="H48">
+        <v>-0.04407776095895007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07900922863034658</v>
+        <v>-0.06677390031910017</v>
       </c>
       <c r="C50">
-        <v>0.08012216746004183</v>
+        <v>-0.07732157222552875</v>
       </c>
       <c r="D50">
-        <v>-0.06122284413736014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05436917805914836</v>
+      </c>
+      <c r="E50">
+        <v>0.06367306781018431</v>
+      </c>
+      <c r="F50">
+        <v>0.04785952598802303</v>
+      </c>
+      <c r="G50">
+        <v>-0.004763678700168419</v>
+      </c>
+      <c r="H50">
+        <v>-0.03905614894064865</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01211300381904595</v>
+        <v>-0.01017384875217195</v>
       </c>
       <c r="C51">
-        <v>0.02868656328816658</v>
+        <v>-0.02123731899990501</v>
       </c>
       <c r="D51">
-        <v>-0.09317195010684913</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09151747641393641</v>
+      </c>
+      <c r="E51">
+        <v>0.03843626343533849</v>
+      </c>
+      <c r="F51">
+        <v>-0.006774670023911132</v>
+      </c>
+      <c r="G51">
+        <v>-0.01447278100205488</v>
+      </c>
+      <c r="H51">
+        <v>-0.07456283185928035</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08102337081381172</v>
+        <v>-0.09312610516326826</v>
       </c>
       <c r="C53">
-        <v>0.08141365223927803</v>
+        <v>-0.09608367973476098</v>
       </c>
       <c r="D53">
-        <v>-0.0157601584048265</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.001144827514333598</v>
+      </c>
+      <c r="E53">
+        <v>0.1029170155103496</v>
+      </c>
+      <c r="F53">
+        <v>0.01634536539828235</v>
+      </c>
+      <c r="G53">
+        <v>-0.07681773839349092</v>
+      </c>
+      <c r="H53">
+        <v>0.05770794218545414</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03441306892931906</v>
+        <v>-0.02801009420505338</v>
       </c>
       <c r="C54">
-        <v>0.02955054428533773</v>
+        <v>-0.0350978720909264</v>
       </c>
       <c r="D54">
-        <v>-0.08079278427419159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0864568622098027</v>
+      </c>
+      <c r="E54">
+        <v>0.05445779268127337</v>
+      </c>
+      <c r="F54">
+        <v>-0.02139517996536523</v>
+      </c>
+      <c r="G54">
+        <v>-0.03045954377840066</v>
+      </c>
+      <c r="H54">
+        <v>-0.1022977115047831</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08557630452453562</v>
+        <v>-0.0884075683506919</v>
       </c>
       <c r="C55">
-        <v>0.06203507463828359</v>
+        <v>-0.07868237492433583</v>
       </c>
       <c r="D55">
-        <v>-0.004961486483627524</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01167052348894719</v>
+      </c>
+      <c r="E55">
+        <v>0.06177451471794313</v>
+      </c>
+      <c r="F55">
+        <v>0.0219925948164943</v>
+      </c>
+      <c r="G55">
+        <v>-0.02956562949824701</v>
+      </c>
+      <c r="H55">
+        <v>0.03998939679304224</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1426136017552903</v>
+        <v>-0.1431207931555444</v>
       </c>
       <c r="C56">
-        <v>0.09267228197225502</v>
+        <v>-0.1184641042815571</v>
       </c>
       <c r="D56">
-        <v>-0.0008294521582513257</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02087872971350712</v>
+      </c>
+      <c r="E56">
+        <v>0.05916579293599725</v>
+      </c>
+      <c r="F56">
+        <v>0.01457071912838379</v>
+      </c>
+      <c r="G56">
+        <v>-0.04399777474808998</v>
+      </c>
+      <c r="H56">
+        <v>0.04588563030100945</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.04048782253723859</v>
+        <v>-0.03973965638857995</v>
       </c>
       <c r="C58">
-        <v>-0.008015805808051476</v>
+        <v>-0.02253074397346655</v>
       </c>
       <c r="D58">
-        <v>-0.4328367944500671</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3724043095152091</v>
+      </c>
+      <c r="E58">
+        <v>0.2251580345500969</v>
+      </c>
+      <c r="F58">
+        <v>0.08874971835251967</v>
+      </c>
+      <c r="G58">
+        <v>0.4477206246285335</v>
+      </c>
+      <c r="H58">
+        <v>0.2852378452036957</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1325268927889153</v>
+        <v>-0.1613999048495317</v>
       </c>
       <c r="C59">
-        <v>-0.2071657544387941</v>
+        <v>0.1810825248124389</v>
       </c>
       <c r="D59">
-        <v>-0.02390774160631788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04251650719407223</v>
+      </c>
+      <c r="E59">
+        <v>0.01363913035761236</v>
+      </c>
+      <c r="F59">
+        <v>-0.03028561691659467</v>
+      </c>
+      <c r="G59">
+        <v>0.01501534476460507</v>
+      </c>
+      <c r="H59">
+        <v>0.01569399863953003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2560911748586158</v>
+        <v>-0.2347153764321107</v>
       </c>
       <c r="C60">
-        <v>0.07444610015348851</v>
+        <v>-0.09386505992214893</v>
       </c>
       <c r="D60">
-        <v>-0.1093917259324057</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1280194388455519</v>
+      </c>
+      <c r="E60">
+        <v>-0.3526917390448315</v>
+      </c>
+      <c r="F60">
+        <v>0.1273302150510179</v>
+      </c>
+      <c r="G60">
+        <v>0.0250555146881816</v>
+      </c>
+      <c r="H60">
+        <v>0.06276108361649751</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04909059386889717</v>
+        <v>-0.04320801555297474</v>
       </c>
       <c r="C61">
-        <v>0.05115968165001481</v>
+        <v>-0.05698599415719167</v>
       </c>
       <c r="D61">
-        <v>-0.09303398005931565</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08994369488446655</v>
+      </c>
+      <c r="E61">
+        <v>0.02366293182527858</v>
+      </c>
+      <c r="F61">
+        <v>-0.01092662407317902</v>
+      </c>
+      <c r="G61">
+        <v>-0.03916333445721634</v>
+      </c>
+      <c r="H61">
+        <v>-0.06550455756665108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01475971044593534</v>
+        <v>-0.0157475868025841</v>
       </c>
       <c r="C63">
-        <v>0.01969280620596914</v>
+        <v>-0.02747305343678258</v>
       </c>
       <c r="D63">
-        <v>-0.05587853690048342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0688188636609141</v>
+      </c>
+      <c r="E63">
+        <v>0.05604955003797799</v>
+      </c>
+      <c r="F63">
+        <v>0.01843561145729094</v>
+      </c>
+      <c r="G63">
+        <v>-0.01406057295790406</v>
+      </c>
+      <c r="H63">
+        <v>-0.03552962941234866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05505159916735991</v>
+        <v>-0.05607978986888178</v>
       </c>
       <c r="C64">
-        <v>0.04907188095450087</v>
+        <v>-0.06868979789418631</v>
       </c>
       <c r="D64">
-        <v>-0.06355588342425768</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05294370072709478</v>
+      </c>
+      <c r="E64">
+        <v>0.0382910522051499</v>
+      </c>
+      <c r="F64">
+        <v>-0.03215701671308341</v>
+      </c>
+      <c r="G64">
+        <v>-0.06856593920893352</v>
+      </c>
+      <c r="H64">
+        <v>-0.02188430779056545</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05846501209362795</v>
+        <v>-0.05211978400604206</v>
       </c>
       <c r="C65">
-        <v>0.01280765270349503</v>
+        <v>-0.02275771081316014</v>
       </c>
       <c r="D65">
-        <v>-0.1060503669503724</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1143597486166968</v>
+      </c>
+      <c r="E65">
+        <v>0.01110344834873025</v>
+      </c>
+      <c r="F65">
+        <v>0.01922593915544433</v>
+      </c>
+      <c r="G65">
+        <v>0.04840675412659277</v>
+      </c>
+      <c r="H65">
+        <v>0.02101654692973872</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04983956177997265</v>
+        <v>-0.04692439092598601</v>
       </c>
       <c r="C66">
-        <v>0.05662038597893888</v>
+        <v>-0.07021968804649882</v>
       </c>
       <c r="D66">
-        <v>-0.1105514876150801</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1224535070479817</v>
+      </c>
+      <c r="E66">
+        <v>0.02589230332388476</v>
+      </c>
+      <c r="F66">
+        <v>-0.01204739427108152</v>
+      </c>
+      <c r="G66">
+        <v>-0.01539765305160855</v>
+      </c>
+      <c r="H66">
+        <v>-0.05830603266334415</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05038260449148607</v>
+        <v>-0.04152550280772992</v>
       </c>
       <c r="C67">
-        <v>0.02627949364188573</v>
+        <v>-0.02793218654461141</v>
       </c>
       <c r="D67">
-        <v>-0.02749166131567083</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02544696338923914</v>
+      </c>
+      <c r="E67">
+        <v>0.02238466038354032</v>
+      </c>
+      <c r="F67">
+        <v>0.0006058626010550997</v>
+      </c>
+      <c r="G67">
+        <v>0.0183301138088558</v>
+      </c>
+      <c r="H67">
+        <v>-0.03218315058714863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1492675271934219</v>
+        <v>-0.1773441190991762</v>
       </c>
       <c r="C68">
-        <v>-0.2828997903845113</v>
+        <v>0.2292973384783736</v>
       </c>
       <c r="D68">
-        <v>0.0302789948181726</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.002223613863225769</v>
+      </c>
+      <c r="E68">
+        <v>0.05623176869589349</v>
+      </c>
+      <c r="F68">
+        <v>0.02385720314770615</v>
+      </c>
+      <c r="G68">
+        <v>0.005926170150139604</v>
+      </c>
+      <c r="H68">
+        <v>0.002687454007524447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09019403851307883</v>
+        <v>-0.08300180935471199</v>
       </c>
       <c r="C69">
-        <v>0.08146383077072195</v>
+        <v>-0.09968122622693834</v>
       </c>
       <c r="D69">
-        <v>-0.04557468199724552</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04543333908051275</v>
+      </c>
+      <c r="E69">
+        <v>0.03557903931023383</v>
+      </c>
+      <c r="F69">
+        <v>0.0007848897275453657</v>
+      </c>
+      <c r="G69">
+        <v>-0.05102550184119415</v>
+      </c>
+      <c r="H69">
+        <v>-0.0106785483017066</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1260138755890394</v>
+        <v>-0.1649103396042144</v>
       </c>
       <c r="C71">
-        <v>-0.2572355138275117</v>
+        <v>0.2288768229462745</v>
       </c>
       <c r="D71">
-        <v>-0.03341278262539826</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03863700169730671</v>
+      </c>
+      <c r="E71">
+        <v>0.05478905306236503</v>
+      </c>
+      <c r="F71">
+        <v>0.016557584293116</v>
+      </c>
+      <c r="G71">
+        <v>-0.0421501355536475</v>
+      </c>
+      <c r="H71">
+        <v>-0.008327392789064268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09783289159248462</v>
+        <v>-0.1028098628342888</v>
       </c>
       <c r="C72">
-        <v>0.04507519530394184</v>
+        <v>-0.05975611415422296</v>
       </c>
       <c r="D72">
-        <v>-0.07966620414474943</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09001380741757303</v>
+      </c>
+      <c r="E72">
+        <v>-0.01289305823099671</v>
+      </c>
+      <c r="F72">
+        <v>0.02840620010894318</v>
+      </c>
+      <c r="G72">
+        <v>-0.05366026328600142</v>
+      </c>
+      <c r="H72">
+        <v>-0.01858884024856489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3129577369243571</v>
+        <v>-0.2757971312149307</v>
       </c>
       <c r="C73">
-        <v>0.01752014829788422</v>
+        <v>-0.0631373305177953</v>
       </c>
       <c r="D73">
-        <v>-0.1930073196755193</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2074506082967597</v>
+      </c>
+      <c r="E73">
+        <v>-0.6477413740372736</v>
+      </c>
+      <c r="F73">
+        <v>0.1641038466050982</v>
+      </c>
+      <c r="G73">
+        <v>0.07137607723635471</v>
+      </c>
+      <c r="H73">
+        <v>0.07805042249411279</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1086095947134971</v>
+        <v>-0.1080921636608649</v>
       </c>
       <c r="C74">
-        <v>0.08378522969787396</v>
+        <v>-0.09470848355695333</v>
       </c>
       <c r="D74">
-        <v>-0.03386746837736701</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.005279348600482072</v>
+      </c>
+      <c r="E74">
+        <v>0.08553180507648066</v>
+      </c>
+      <c r="F74">
+        <v>0.04234753245680976</v>
+      </c>
+      <c r="G74">
+        <v>-0.0339563567074362</v>
+      </c>
+      <c r="H74">
+        <v>0.07179371282470928</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2527265285787554</v>
+        <v>-0.2480253733051599</v>
       </c>
       <c r="C75">
-        <v>0.1069942490433065</v>
+        <v>-0.1477673435857567</v>
       </c>
       <c r="D75">
-        <v>0.07746587971835332</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1225488951790191</v>
+      </c>
+      <c r="E75">
+        <v>0.06532886016423642</v>
+      </c>
+      <c r="F75">
+        <v>-0.03102530868098235</v>
+      </c>
+      <c r="G75">
+        <v>-0.02428289156948204</v>
+      </c>
+      <c r="H75">
+        <v>0.1706114018020505</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1210247463222801</v>
+        <v>-0.1274843379728837</v>
       </c>
       <c r="C76">
-        <v>0.08573244015397494</v>
+        <v>-0.106259985235681</v>
       </c>
       <c r="D76">
-        <v>-0.001667940219779961</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02362655872423196</v>
+      </c>
+      <c r="E76">
+        <v>0.1134455834298758</v>
+      </c>
+      <c r="F76">
+        <v>-0.003381556988442325</v>
+      </c>
+      <c r="G76">
+        <v>-0.05321346452391076</v>
+      </c>
+      <c r="H76">
+        <v>0.04436000699491018</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0816889601668641</v>
+        <v>-0.06904170121287283</v>
       </c>
       <c r="C77">
-        <v>0.01543879104159219</v>
+        <v>-0.06480862432929507</v>
       </c>
       <c r="D77">
-        <v>-0.1124758884273123</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1187973147100939</v>
+      </c>
+      <c r="E77">
+        <v>0.075418900177821</v>
+      </c>
+      <c r="F77">
+        <v>-0.3059805040340723</v>
+      </c>
+      <c r="G77">
+        <v>0.1618888027546945</v>
+      </c>
+      <c r="H77">
+        <v>0.1073684827684603</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03468186464869915</v>
+        <v>-0.04164218414627893</v>
       </c>
       <c r="C78">
-        <v>0.03679836058231005</v>
+        <v>-0.0567388454707085</v>
       </c>
       <c r="D78">
-        <v>-0.09333968771589632</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1224690473948604</v>
+      </c>
+      <c r="E78">
+        <v>0.02504250221132603</v>
+      </c>
+      <c r="F78">
+        <v>0.004883434536587319</v>
+      </c>
+      <c r="G78">
+        <v>-0.03888686606552626</v>
+      </c>
+      <c r="H78">
+        <v>-0.01429423194679287</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.002834111606031726</v>
+        <v>-0.0408988284722668</v>
       </c>
       <c r="C79">
-        <v>-0.002641989599343953</v>
+        <v>-0.07039412916666406</v>
       </c>
       <c r="D79">
-        <v>-0.01472092210733423</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05111525970183099</v>
+      </c>
+      <c r="E79">
+        <v>0.1470309006171138</v>
+      </c>
+      <c r="F79">
+        <v>0.0390848781683129</v>
+      </c>
+      <c r="G79">
+        <v>-0.3788623785282574</v>
+      </c>
+      <c r="H79">
+        <v>0.6748785299442356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03464947038330732</v>
+        <v>-0.02794241116614045</v>
       </c>
       <c r="C80">
-        <v>0.01776212876936475</v>
+        <v>-0.03661959622342342</v>
       </c>
       <c r="D80">
-        <v>-0.03706614182628606</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03553372503704126</v>
+      </c>
+      <c r="E80">
+        <v>0.006712714701545927</v>
+      </c>
+      <c r="F80">
+        <v>-0.04066390206358585</v>
+      </c>
+      <c r="G80">
+        <v>0.02997841705362495</v>
+      </c>
+      <c r="H80">
+        <v>-0.03951882684924319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1486868468954081</v>
+        <v>-0.1364200644524308</v>
       </c>
       <c r="C81">
-        <v>0.08207170451580192</v>
+        <v>-0.1094051610658282</v>
       </c>
       <c r="D81">
-        <v>0.03734178328307449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07693520244756843</v>
+      </c>
+      <c r="E81">
+        <v>0.1067622239015788</v>
+      </c>
+      <c r="F81">
+        <v>-0.009977788908942214</v>
+      </c>
+      <c r="G81">
+        <v>-0.03609778430567668</v>
+      </c>
+      <c r="H81">
+        <v>0.06778007223961786</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2810360850213661</v>
+        <v>-0.25085801340521</v>
       </c>
       <c r="C82">
-        <v>0.2007358099145968</v>
+        <v>-0.2158989729653348</v>
       </c>
       <c r="D82">
-        <v>0.242417022941579</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2346802161135269</v>
+      </c>
+      <c r="E82">
+        <v>-0.02330440717004896</v>
+      </c>
+      <c r="F82">
+        <v>0.009071254841568909</v>
+      </c>
+      <c r="G82">
+        <v>-0.418593168456147</v>
+      </c>
+      <c r="H82">
+        <v>-0.3823926783896657</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04112485856130394</v>
+        <v>-0.02687129185348496</v>
       </c>
       <c r="C83">
-        <v>0.03528239020327061</v>
+        <v>-0.04866799202829527</v>
       </c>
       <c r="D83">
-        <v>-0.07364403293979251</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05306161559737783</v>
+      </c>
+      <c r="E83">
+        <v>0.001391310039539102</v>
+      </c>
+      <c r="F83">
+        <v>-0.02601924409137451</v>
+      </c>
+      <c r="G83">
+        <v>-0.002681499909087888</v>
+      </c>
+      <c r="H83">
+        <v>-0.02573612074905865</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0004803651346053336</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.002355204033514319</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.005830584417995679</v>
+      </c>
+      <c r="E84">
+        <v>0.0110578779288836</v>
+      </c>
+      <c r="F84">
+        <v>0.003381190914544455</v>
+      </c>
+      <c r="G84">
+        <v>0.00418452195412765</v>
+      </c>
+      <c r="H84">
+        <v>-0.00710120902256122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1904128283843861</v>
+        <v>-0.1738146937586206</v>
       </c>
       <c r="C85">
-        <v>0.07674832855890197</v>
+        <v>-0.1121390708548633</v>
       </c>
       <c r="D85">
-        <v>0.07052715125950877</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09303936367949089</v>
+      </c>
+      <c r="E85">
+        <v>0.03868070619139846</v>
+      </c>
+      <c r="F85">
+        <v>0.02030814600620121</v>
+      </c>
+      <c r="G85">
+        <v>-0.06241022221651072</v>
+      </c>
+      <c r="H85">
+        <v>0.1556636525054524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01389145102003268</v>
+        <v>-0.01970934710091597</v>
       </c>
       <c r="C86">
-        <v>0.01628273827674455</v>
+        <v>-0.01447836941182512</v>
       </c>
       <c r="D86">
-        <v>-0.1354619329648767</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.122733120426485</v>
+      </c>
+      <c r="E86">
+        <v>0.02331557629112794</v>
+      </c>
+      <c r="F86">
+        <v>-0.01734474530595894</v>
+      </c>
+      <c r="G86">
+        <v>-0.04429158556300862</v>
+      </c>
+      <c r="H86">
+        <v>-0.05965575615444373</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03131725112858245</v>
+        <v>-0.0346841347274811</v>
       </c>
       <c r="C87">
-        <v>0.007744143062294356</v>
+        <v>-0.02722704998220186</v>
       </c>
       <c r="D87">
-        <v>-0.1122851804255558</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1318746134740733</v>
+      </c>
+      <c r="E87">
+        <v>0.09391322997340658</v>
+      </c>
+      <c r="F87">
+        <v>-0.03430170914394289</v>
+      </c>
+      <c r="G87">
+        <v>-0.006543651908859358</v>
+      </c>
+      <c r="H87">
+        <v>-0.02865727434232967</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08989050799186343</v>
+        <v>-0.078682200590159</v>
       </c>
       <c r="C88">
-        <v>0.07035913361237041</v>
+        <v>-0.06908561606875031</v>
       </c>
       <c r="D88">
-        <v>-0.07058792987719262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04032470689965992</v>
+      </c>
+      <c r="E88">
+        <v>0.04702815434628243</v>
+      </c>
+      <c r="F88">
+        <v>-0.003883666056391715</v>
+      </c>
+      <c r="G88">
+        <v>-0.02022261084388643</v>
+      </c>
+      <c r="H88">
+        <v>-0.03091463358402674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1945398708977402</v>
+        <v>-0.2479706343762868</v>
       </c>
       <c r="C89">
-        <v>-0.3728237088865328</v>
+        <v>0.3631692214145409</v>
       </c>
       <c r="D89">
-        <v>0.02532171729340003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003382709594017922</v>
+      </c>
+      <c r="E89">
+        <v>0.07086738899641012</v>
+      </c>
+      <c r="F89">
+        <v>-0.05795307755445892</v>
+      </c>
+      <c r="G89">
+        <v>-0.03466441359521557</v>
+      </c>
+      <c r="H89">
+        <v>-0.02470040122894135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1881517594510988</v>
+        <v>-0.2238148688598311</v>
       </c>
       <c r="C90">
-        <v>-0.3059367084924581</v>
+        <v>0.277617134180385</v>
       </c>
       <c r="D90">
-        <v>0.01849236709069669</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01445340609441905</v>
+      </c>
+      <c r="E90">
+        <v>0.05635080691600129</v>
+      </c>
+      <c r="F90">
+        <v>-0.002290786221948305</v>
+      </c>
+      <c r="G90">
+        <v>0.01109363759767285</v>
+      </c>
+      <c r="H90">
+        <v>-0.06156275035448168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1884594924589669</v>
+        <v>-0.1763200392588</v>
       </c>
       <c r="C91">
-        <v>0.1452145652940536</v>
+        <v>-0.1620908229691252</v>
       </c>
       <c r="D91">
-        <v>0.04237486793378098</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08336945234633952</v>
+      </c>
+      <c r="E91">
+        <v>0.0916002721867058</v>
+      </c>
+      <c r="F91">
+        <v>0.006515982160947664</v>
+      </c>
+      <c r="G91">
+        <v>-0.03449558444682872</v>
+      </c>
+      <c r="H91">
+        <v>0.1547781879043745</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1645151572510443</v>
+        <v>-0.201456888650861</v>
       </c>
       <c r="C92">
-        <v>-0.2820049419566267</v>
+        <v>0.2834632555985194</v>
       </c>
       <c r="D92">
-        <v>-0.04609256226533097</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.0166617332820893</v>
+      </c>
+      <c r="E92">
+        <v>0.07223724723706458</v>
+      </c>
+      <c r="F92">
+        <v>-0.0375697338696202</v>
+      </c>
+      <c r="G92">
+        <v>-0.01816594598449528</v>
+      </c>
+      <c r="H92">
+        <v>-0.03274441093820478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2108316598766619</v>
+        <v>-0.2439672396899548</v>
       </c>
       <c r="C93">
-        <v>-0.3280692786215814</v>
+        <v>0.2948982508286457</v>
       </c>
       <c r="D93">
-        <v>-0.002301108454609872</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0038667880298435</v>
+      </c>
+      <c r="E93">
+        <v>0.03721241076100479</v>
+      </c>
+      <c r="F93">
+        <v>0.02905052742292633</v>
+      </c>
+      <c r="G93">
+        <v>-0.02453052314085242</v>
+      </c>
+      <c r="H93">
+        <v>-0.01338735542945957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.4003076868796359</v>
+        <v>-0.3489648938580295</v>
       </c>
       <c r="C94">
-        <v>0.2353353589656899</v>
+        <v>-0.2382227886407456</v>
       </c>
       <c r="D94">
-        <v>0.450497532667357</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4400858871184758</v>
+      </c>
+      <c r="E94">
+        <v>0.1220914809609136</v>
+      </c>
+      <c r="F94">
+        <v>-0.03227146196991025</v>
+      </c>
+      <c r="G94">
+        <v>0.5854573424160805</v>
+      </c>
+      <c r="H94">
+        <v>-0.1374517241699322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09280174758842809</v>
+        <v>-0.0722033543949617</v>
       </c>
       <c r="C95">
-        <v>-0.01848845022456856</v>
+        <v>-0.03869561956588782</v>
       </c>
       <c r="D95">
-        <v>-0.08278151438162269</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09199830756864213</v>
+      </c>
+      <c r="E95">
+        <v>-0.1983806613495109</v>
+      </c>
+      <c r="F95">
+        <v>-0.8935322468928665</v>
+      </c>
+      <c r="G95">
+        <v>-0.02554767699637604</v>
+      </c>
+      <c r="H95">
+        <v>0.0639084387798782</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1735772770770079</v>
+        <v>-0.1695983404247024</v>
       </c>
       <c r="C98">
-        <v>0.02250715615265705</v>
+        <v>-0.05259103169508492</v>
       </c>
       <c r="D98">
-        <v>-0.1248596623422578</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1417182674783848</v>
+      </c>
+      <c r="E98">
+        <v>-0.2774569491407573</v>
+      </c>
+      <c r="F98">
+        <v>0.1139369810434608</v>
+      </c>
+      <c r="G98">
+        <v>-0.008638953007276138</v>
+      </c>
+      <c r="H98">
+        <v>0.02082890051790948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007187821981250569</v>
+        <v>-0.008030464370200753</v>
       </c>
       <c r="C101">
-        <v>0.02144559380831343</v>
+        <v>-0.02369895347625808</v>
       </c>
       <c r="D101">
-        <v>-0.06434682948887474</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07622710262423249</v>
+      </c>
+      <c r="E101">
+        <v>0.0555981996912215</v>
+      </c>
+      <c r="F101">
+        <v>0.001085986204145761</v>
+      </c>
+      <c r="G101">
+        <v>-0.03986162000791262</v>
+      </c>
+      <c r="H101">
+        <v>-0.07737945812036143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1295177678534674</v>
+        <v>-0.1178652340027825</v>
       </c>
       <c r="C102">
-        <v>0.08811400343183251</v>
+        <v>-0.1128313146280366</v>
       </c>
       <c r="D102">
-        <v>0.03107276901282943</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05135841744413003</v>
+      </c>
+      <c r="E102">
+        <v>0.02051930107065737</v>
+      </c>
+      <c r="F102">
+        <v>-0.02676631322961514</v>
+      </c>
+      <c r="G102">
+        <v>-0.05119167409518711</v>
+      </c>
+      <c r="H102">
+        <v>0.01288091018642655</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
